--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2013.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2013.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159200979534805</v>
+        <v>1.115796208381653</v>
       </c>
       <c r="B1">
-        <v>2.320799575216439</v>
+        <v>2.919003486633301</v>
       </c>
       <c r="C1">
-        <v>7.815533358093015</v>
+        <v>6.640682697296143</v>
       </c>
       <c r="D1">
-        <v>2.418834758003138</v>
+        <v>1.936115503311157</v>
       </c>
       <c r="E1">
-        <v>1.225667168430892</v>
+        <v>1.124441266059875</v>
       </c>
     </row>
   </sheetData>
